--- a/biology/Biologie cellulaire et moléculaire/Milieu_RPMI/Milieu_RPMI.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Milieu_RPMI/Milieu_RPMI.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Roswell Park Memorial Institute medium (RPMI) est un milieu utilisé en culture cellulaire. Il est traditionnellement utilisé pour la culture de cellules humaines ou de tissus isolés comme le cas des artères mammaires humaines[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Roswell Park Memorial Institute medium (RPMI) est un milieu utilisé en culture cellulaire. Il est traditionnellement utilisé pour la culture de cellules humaines ou de tissus isolés comme le cas des artères mammaires humaines.
 Ce milieu contient une grande quantité de phosphates et il est composé de manière à être utilisé dans une atmosphère comprenant 5% de dioxyde de carbone. 
-Il existe une grande variété de RPMI, comme le RPMI 1640. La formulation et les composants sont[2],[3]:
+Il existe une grande variété de RPMI, comme le RPMI 1640. La formulation et les composants sont,:
 Glucose
 Un indicateur de pH (rouge de phénol)
 Différents sels (chlorure de sodium, bicarbonate de sodium, phosphate disodique, chlorure de potassium, sulfate de magnésium et nitrate de calcium)
